--- a/counts_loglikelihood_filter3.xlsx
+++ b/counts_loglikelihood_filter3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Zeitung</t>
   </si>
@@ -30,12 +30,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Vergleichskorpus</t>
   </si>
   <si>
     <t>FAZ</t>
@@ -112,10 +106,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>32.814987453652</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -123,10 +117,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>46.790922561023166</v>
+        <v>37.691007199312885</v>
       </c>
     </row>
     <row r="4">
@@ -134,10 +128,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>115.2</v>
+        <v>75.89310105626043</v>
       </c>
     </row>
     <row r="5">
@@ -145,21 +139,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>91.04928144891397</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>42.45608448760813</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
